--- a/mcmaster_excel/Tamper-Resistant_Tri-Groove_Rounded_Head_Screws.xlsx
+++ b/mcmaster_excel/Tamper-Resistant_Tri-Groove_Rounded_Head_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,129 +434,97 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Min.Thread Lg.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr"/>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>Lg.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>Min.Thread Lg.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.26"</t>
+          <t>HeadDia.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.12"</t>
+          <t>Head Ht.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>No. 6</t>
+          <t>DriveSize</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>80,000</t>
+          <t>TensileStrength, psi</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>90058A146</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>$11.45</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>6-32</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -596,12 +564,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>90058A148</t>
+          <t>90058A146</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>10.57</t>
+          <t>$11.45</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -618,7 +586,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -658,12 +626,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>90058A151</t>
+          <t>90058A148</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>11.45</t>
+          <t>10.57</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -680,7 +648,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -695,12 +663,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.28"</t>
+          <t>0.26"</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.148"</t>
+          <t>0.12"</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -720,17 +688,17 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>90058A192</t>
+          <t>90058A151</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>12.32</t>
+          <t>11.45</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -742,7 +710,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -782,12 +750,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>90058A194</t>
+          <t>90058A192</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>13.20</t>
+          <t>12.32</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -804,7 +772,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -844,12 +812,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>90058A197</t>
+          <t>90058A194</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>14.08</t>
+          <t>13.20</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -866,7 +834,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -906,12 +874,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>90058A199</t>
+          <t>90058A197</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>14.96</t>
+          <t>14.08</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -928,7 +896,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -968,12 +936,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>90058A201</t>
+          <t>90058A199</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>15.83</t>
+          <t>14.96</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -990,7 +958,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1030,12 +998,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>90058A203</t>
+          <t>90058A201</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>16.71</t>
+          <t>15.83</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1052,7 +1020,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1067,17 +1035,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.375"</t>
+          <t>0.28"</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.15"</t>
+          <t>0.148"</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>No. 10</t>
+          <t>No. 6</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1092,17 +1060,17 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>90058A242</t>
+          <t>90058A203</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>14.08</t>
+          <t>16.71</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1114,7 +1082,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1154,12 +1122,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>90058A245</t>
+          <t>90058A242</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>14.96</t>
+          <t>14.08</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1176,7 +1144,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1211,17 +1179,17 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>90058A247</t>
+          <t>90058A245</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>7.92</t>
+          <t>14.96</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1238,7 +1206,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1278,12 +1246,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>90058A251</t>
+          <t>90058A247</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>8.36</t>
+          <t>7.92</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1300,7 +1268,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1335,22 +1303,22 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>90058A829</t>
+          <t>90058A251</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14.52</t>
+          <t>8.36</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1362,7 +1330,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1402,12 +1370,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>90058A831</t>
+          <t>90058A829</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15.39</t>
+          <t>14.52</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1424,7 +1392,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1464,12 +1432,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>90058A833</t>
+          <t>90058A831</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16.27</t>
+          <t>15.39</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1486,7 +1454,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1521,17 +1489,17 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>90058A836</t>
+          <t>90058A833</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>8.57</t>
+          <t>16.27</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1548,7 +1516,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1568,7 +1536,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.155"</t>
+          <t>0.15"</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1583,22 +1551,22 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>90058A538</t>
+          <t>90058A836</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>14.96</t>
+          <t>8.57</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1610,7 +1578,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1650,12 +1618,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>90058A540</t>
+          <t>90058A538</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>15.83</t>
+          <t>14.96</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1672,7 +1640,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1707,17 +1675,17 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>90058A542</t>
+          <t>90058A540</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>8.36</t>
+          <t>15.83</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1734,7 +1702,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1774,12 +1742,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>90058A546</t>
+          <t>90058A542</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>8.36</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1796,7 +1764,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1836,12 +1804,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>90058A550</t>
+          <t>90058A546</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>11.43</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1858,17 +1826,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2 1/2"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Partially Threaded</t>
+          <t>Fully Threaded</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>__</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1893,17 +1861,17 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>90058A552</t>
+          <t>90058A550</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>11.43</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1920,32 +1888,32 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>2 1/2"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Partially Threaded</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.57"</t>
+          <t>0.375"</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.275"</t>
+          <t>0.155"</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>No. 20</t>
+          <t>No. 10</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1955,22 +1923,22 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>90058A580</t>
+          <t>90058A552</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>10.33</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>5/16"-18</t>
+          <t>1/4"-20</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -1982,7 +1950,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2022,12 +1990,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>90058A581</t>
+          <t>90058A580</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>10.99</t>
+          <t>10.33</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2044,60 +2012,122 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>3/4"</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.57"</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0.275"</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>No. 20</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>90058A581</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>5/16"-18</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>1"</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>0.57"</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>0.275"</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>No. 20</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>90058A583</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>11.86</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>5/16"-18</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
         </is>
